--- a/Tables/aq_annual_hmf_sum_outlet_30_95.xlsx
+++ b/Tables/aq_annual_hmf_sum_outlet_30_95.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.245739664661279</v>
+        <v>1.292368581010736</v>
       </c>
     </row>
     <row r="3">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.151922283024155</v>
+        <v>2.604924345657913</v>
       </c>
     </row>
     <row r="4">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.281989720789349</v>
+        <v>2.174244897411695</v>
       </c>
     </row>
     <row r="6">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.454275121517914</v>
+        <v>8.054054754218605</v>
       </c>
     </row>
     <row r="12">
